--- a/design/Config/Common/Loading.xlsx
+++ b/design/Config/Common/Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\注册登陆\系统文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.LayaGameFrame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BAEC13F-9FCC-4C9B-9D8D-55689D52DD10}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F67BAC-5C45-42E5-AD0F-96D0F0E862AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="0" windowWidth="27810" windowHeight="12435" xr2:uid="{C3AB9D61-D127-43BE-89AE-D01E90176742}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{C3AB9D61-D127-43BE-89AE-D01E90176742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FAABF2-D434-4671-A1C1-6C0D924580FA}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -480,24 +480,28 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1001</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -734,6 +738,10 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
